--- a/biology/Médecine/Syndrome_de_Beals/Syndrome_de_Beals.xlsx
+++ b/biology/Médecine/Syndrome_de_Beals/Syndrome_de_Beals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Beals ou CCA syndrom (en anglais : Congenital contractural arachnodactyly syndrom, signifiant syndrome d'arachnodactylie contracturale congénitale) entraîne des sujets grands avec des membres supérieurs disproportionnés par rapport à la taille avec des doigts et des orteils très longs. Il présente des pavillons auriculaires anormaux (oreilles froissées) et des contractures des grosses articulations à la naissance. Les premières articulations des doigts présentent une contracture entraînant une arachnodactylie et les orteils présentent aussi cette anomalie. Les contractures articulaires se rencontrent aussi des hanches et des pouces. Des pieds bots peuvent survenir. Une hypoplasie musculaire atteint la majorité des individus malades. Ces contractures s'améliorent avec le temps.
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Maurice Godfrey, Congenital Contractural Arachnodactyly In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Maurice Godfrey, Congenital Contractural Arachnodactyly In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
 (fr) « L'arachnodactylie », sur spiegato.com
  Portail de la médecine                     </t>
         </is>
